--- a/DOWNLOADS/EDITAIS/U_986291_E_992222025/U_986291_E_992222025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_986291_E_992222025/U_986291_E_992222025_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Nº</t>
   </si>
@@ -73,40 +73,19 @@
     <t>Leitora Cartão / Peças E Acessórios Leitora Cartão / Peças E Acessórios Tipo: Externa Para Cartões Sd/Sdhc/Sdxc, Microsd/Sdhc/ -, Conectividade: Usb 3.0, Compatibilidade: Compatível Com 2.0, Taxa Transferência: Mínima De 5gbps, Características Adicionais: Sem Necessidade De Alimentação Externa</t>
   </si>
   <si>
-    <t>HOMOLOGADO PELA AGÊNCIA NACIONAL DE TELECOMUNICAÇÕES (ANATEL); TEMPO DE VOO APROXIMADO DE 41 MINUTOS; TEMPERATURA DE FUNCIONAMENTO: -20ºC A 50ºC; CÂMERA AMPLA COM SENSOR CMOS DE 1/1.3 E 48 MP RESOLUÇÃO DA FOTO: 8K RESOLUÇÃO DE VÍDEO 4K / 30 FPS ZOOM DA CÂMERA: ÓTICO DE 5X A 16X E HÍBRIDO MÁXIMO DE 200X; COM SENSOR TELEMÉTRICO SISTEMA DE DETECÇÃO POR INFRAVERMELHO; CONTROLE REMOTO COM TELA SENSÍVEL AO TOQUE DE 7 POLEGADAS; BATERIA DE VOO INTELIGENTE COM CAPACIDADE 5880MAH; EMBALAGEM CONTENDO: 01 AERONAVE (DRONE); 01 CONTROLE REMOTO; 02 BATERIAS DE VOO INTELIGENTE; 01 ESTAÇÃO DE CARREGAMENTO; 04 HÉLICES; 01 CABO USB-C; 01 CABO USB-C PARA USB-C; 01 CONJUNTO DE PARAFUSOS E FERRAMENTAS; 01 MALETA DE ARMAZENAMENTO</t>
-  </si>
-  <si>
-    <t>HOMOLOGADO PELA AGENCIA NACIONAL DE TELECOMUNICAÇOÕES — ANATEL; TEMPO DE VOO APROXIMADO 31 MINUTOS; 01 BATERIA COM CAPACIDADE 3500 MAH; COM SENSOR CMOS CONTROLE REMOTO; SEM TELA DETECÇAO DE OBSTACULOS; EM 4 DIREÇÕES CAMERA COM RESOLUÇAO DE 20MP; EMBALAGEM CONTENDO: 01 AERONAVE (DRONE); 01 CONTROLE REMOTO; 03 BATERIAS INTELIGENTES; 01 CARREGADOR DE BATERIA; 01 CABO DO CARREGADOR; 06 PARES DE HÉLICE; 01 CABO MICRO USB; 01 CABO USB TIPO C; 01 CABO LIGHTINING; 01 PROTETOR DE GIMBAL; 01 CABO TIPO C; 01 PAR DE STIKCS; 01 KIT DE FILTROS ND (4/8/16/32); 01 HUB DE CARREGAMENTO DE BATERIAS; 01 ADAPTADOR DE BATERIA PARA BANCO DE ENERGIA; 01 BOLSA DE TRANSPORTE</t>
-  </si>
-  <si>
-    <t>HOMOLOGADO PELA AGÊNCIA NACIONAL DE TELECOMUNICAÇÕES — ANATEL; TEMPO DE VOO APROXIMADO DE 45 MINUTOS; DETECÇÃO DE OBSTÁCULOS OMNIDIRECIONAL; CÂMERA GRANDE-ANGULAR COM SENSOR CMOS; CÂMERA TERMOGRÁFICA, COM RESOLUÇÃO DE 48MP; ZOOM DA CÂMERA: DIGITAL DE 8X E HÍBRIDO DE 56X; TEMPERATURA DE FUNCIONAMENTO: -10 A 40ºC; EMBALAGEM CONTENDO: 01 AERONAVE (DRONE); 01 BATERIA COM CAPACIDADE DE 5.000 MAH; 01 CONTROLE INTELIGENTE COM TELA INTEGRADA; 01 CABO DE ENERGIA; 01 CABO USB-C; 01 CABO USB-C PARA USB-C; 03 PARES DE HÉLICES; 01 CARREGADOR DE BATERIA; 01 CHAVE DE FENDA; 01 MALETA DE ARMAZENAMENTO; 01 GUIA DE INÍCIO RÁPIDO</t>
-  </si>
-  <si>
-    <t>CAPACIDADE 128GB; COM ADAPTADOR SD; À PROVA D'ÁGUA</t>
-  </si>
-  <si>
-    <t>ADAPTADOR HUB DE CARTÃO USB 3.0; COM 4 SLOTS - SD, TF, CF, MS FAZ LEITURA SIMULTÂNEA DE 4 CARTÕES</t>
-  </si>
-  <si>
-    <t>65323,33</t>
-  </si>
-  <si>
-    <t>14310,22</t>
-  </si>
-  <si>
-    <t>33154,00</t>
-  </si>
-  <si>
-    <t>194,35</t>
-  </si>
-  <si>
-    <t>95,73</t>
-  </si>
-  <si>
-    <t>777,40</t>
-  </si>
-  <si>
-    <t>382,92</t>
+    <t>- ITEM 1 – CÓDIGO 167167 - AERONAVE REMOTAMENTE PILOTADA (DRONE) DE ALTO DESEMPENHO COM AS SEGUINTES ESPECIFICAÇÕES MÍNIMAS:</t>
+  </si>
+  <si>
+    <t>- ITEM 2 – CÓDIGO 167167 - AERONAVE REMOTAMENTE PILOTADA (DRONE), SEM</t>
+  </si>
+  <si>
+    <t>- ITEM 3 – CÓDIGO 167169 - AERONAVE REMOTAMENTE PILOTADA (DRONE), COM</t>
+  </si>
+  <si>
+    <t>- ITEM 4 – CÓDIGO 167171 - CARTÃO DE MEMÓRIA MICRO SD</t>
+  </si>
+  <si>
+    <t>- ITEM 5 – CÓDIGO 167170 - LEITOR DE CARTÕES 4 EM 1</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -521,20 +500,20 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>65323.33</v>
+      </c>
+      <c r="F2">
+        <v>65323.33</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -550,20 +529,20 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>14310.22</v>
+      </c>
+      <c r="F3">
+        <v>14310.22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -579,20 +558,20 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>33154</v>
+      </c>
+      <c r="F4">
+        <v>33154</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -608,20 +587,17 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
+      <c r="F5">
+        <v>777.4</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -637,20 +613,17 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
+      <c r="F6">
+        <v>382.92</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
